--- a/src/main/java/com/qa/testdata/APITestData.xlsx
+++ b/src/main/java/com/qa/testdata/APITestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/RestAPIRestAssuredFW/src/main/java/com/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maheshn\git\RestAssuredFramework\src\main\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1060" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="WeatherInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="GetAdmissions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,75 +27,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>humidity</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>weatherdescription</t>
-  </si>
-  <si>
-    <t>windspeed</t>
-  </si>
-  <si>
-    <t>winddirectiondegree</t>
-  </si>
-  <si>
-    <t>HTTPMethod</t>
-  </si>
-  <si>
-    <t>75 Percent</t>
-  </si>
-  <si>
-    <t>13.123 Degree celsius</t>
-  </si>
-  <si>
-    <t>clear sky</t>
-  </si>
-  <si>
-    <t>1.35 Km per hour</t>
-  </si>
-  <si>
-    <t>114.5 Degree</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>82 Percent</t>
-  </si>
-  <si>
-    <t>21.18 Degree celsius</t>
-  </si>
-  <si>
-    <t>few clouds</t>
-  </si>
-  <si>
-    <t>2.1 Km per hour</t>
-  </si>
-  <si>
-    <t>100 Degree</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
+  <si>
+    <t>status[]</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>ResponseCode</t>
+  </si>
+  <si>
+    <t>creationDateSort</t>
+  </si>
+  <si>
+    <t>entityType</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>brokerId</t>
+  </si>
+  <si>
+    <t>ASEC</t>
+  </si>
+  <si>
+    <t>2021-09-31</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>actives</t>
+  </si>
+  <si>
+    <t>agencyOffice</t>
+  </si>
+  <si>
+    <t>active,declined</t>
+  </si>
+  <si>
+    <t>active, declined,cancelled</t>
+  </si>
+  <si>
+    <t>brokerId_isEnabled</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>status[]_isEnabled</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TestCaseID_isEnabled</t>
+  </si>
+  <si>
+    <t>Page_isEnabled</t>
+  </si>
+  <si>
+    <t>creationDateSort_isEnabled</t>
+  </si>
+  <si>
+    <t>startDate_isEnabled</t>
+  </si>
+  <si>
+    <t>endDate_isEnabled</t>
+  </si>
+  <si>
+    <t>entityType_isEnabled</t>
+  </si>
+  <si>
+    <t>ResponseCode_isEnabled</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>7881</t>
+  </si>
+  <si>
+    <t>78810</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,9 +226,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -413,114 +513,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.9140625" customWidth="1"/>
+    <col min="17" max="17" width="13.9140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B10" si="0">$F$3</f>
+        <v>N</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F10" si="1">$F$3</f>
+        <v>N</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>N</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ref="B13" si="2">$F$3</f>
+        <v>N</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" ref="F13" si="3">$F$3</f>
+        <v>N</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="P13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>